--- a/mbs-perturbation/chain/MLP/smote/chain-mlp-smote-results.xlsx
+++ b/mbs-perturbation/chain/MLP/smote/chain-mlp-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8846153846153846</v>
+        <v>0.7903780068728522</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9387755102040816</v>
+        <v>0.8829174664107486</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9709580274797666</v>
+        <v>0.94180312441182</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6910828025477707</v>
+        <v>0.930327868852459</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9393939393939394</v>
+        <v>0.9826839826839827</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7963302752293577</v>
+        <v>0.9557894736842104</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9640127987954076</v>
+        <v>0.9978731413514023</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8702290076335878</v>
+        <v>0.9163346613545816</v>
       </c>
       <c r="C4" t="n">
-        <v>0.991304347826087</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.926829268292683</v>
+        <v>0.9563409563409563</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9638374291115311</v>
+        <v>0.9803780718336484</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8303249097472925</v>
+        <v>0.9703389830508474</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.9956521739130435</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9072978303747534</v>
+        <v>0.9828326180257511</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9918525519848772</v>
+        <v>0.9988090737240076</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9905660377358491</v>
+        <v>0.9956331877729258</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9130434782608695</v>
+        <v>0.991304347826087</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9502262443438914</v>
+        <v>0.9934640522875816</v>
       </c>
       <c r="E6" t="n">
-        <v>0.996710775047259</v>
+        <v>0.9995841209829868</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8533636284559769</v>
+        <v>0.9206025415807332</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9687483530961792</v>
+        <v>0.9939281008846226</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9038918256889534</v>
+        <v>0.9542689133498495</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9774743164837684</v>
+        <v>0.9836895064607731</v>
       </c>
     </row>
   </sheetData>

--- a/mbs-perturbation/chain/MLP/smote/chain-mlp-smote-results.xlsx
+++ b/mbs-perturbation/chain/MLP/smote/chain-mlp-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7903780068728522</v>
+        <v>0.6232876712328768</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.9191919191919192</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8829174664107486</v>
+        <v>0.742857142857143</v>
       </c>
       <c r="E2" t="n">
-        <v>0.94180312441182</v>
+        <v>0.843357820630548</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.930327868852459</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9826839826839827</v>
+        <v>0.9343434343434344</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9557894736842104</v>
+        <v>0.9536082474226805</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9978731413514023</v>
+        <v>0.9910213243546577</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9163346613545816</v>
+        <v>0.8883495145631068</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.9242424242424242</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9563409563409563</v>
+        <v>0.905940594059406</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9803780718336484</v>
+        <v>0.9815580042852771</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9703389830508474</v>
+        <v>0.9346733668341709</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9956521739130435</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9828326180257511</v>
+        <v>0.9370277078085643</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9988090737240076</v>
+        <v>0.9896682561657182</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9956331877729258</v>
+        <v>0.9945054945054945</v>
       </c>
       <c r="C6" t="n">
-        <v>0.991304347826087</v>
+        <v>0.9187817258883249</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9934640522875816</v>
+        <v>0.9551451187335093</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9995841209829868</v>
+        <v>0.9990001538224889</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9206025415807332</v>
+        <v>0.882900051532393</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9939281008846226</v>
+        <v>0.9271906886120084</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9542689133498495</v>
+        <v>0.8989157621762607</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9836895064607731</v>
+        <v>0.9609211118517379</v>
       </c>
     </row>
   </sheetData>
